--- a/xxxxx005_RPC/030_RPC_Layer.xlsx
+++ b/xxxxx005_RPC/030_RPC_Layer.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\xxxxx005_RPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17718A08-FBFC-4315-9356-60ADB57E3267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81C06B8-117E-4E85-BB9C-6D59BF343036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49605" yWindow="1830" windowWidth="17595" windowHeight="14010" xr2:uid="{EDF45EBB-E54E-4B5B-AED4-E73175C7B73C}"/>
+    <workbookView xWindow="43725" yWindow="4830" windowWidth="17595" windowHeight="14010" xr2:uid="{EDF45EBB-E54E-4B5B-AED4-E73175C7B73C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet4!$A$1:$H$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet4!$A$1:$I$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -401,15 +401,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -423,9 +426,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -744,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341ECC70-1862-4314-8B3B-0FB5679E2B9F}">
   <dimension ref="B2:J26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -759,18 +759,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
@@ -779,14 +779,14 @@
       <c r="C3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="12" t="s">
+      <c r="E3" s="17"/>
+      <c r="F3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="16"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
@@ -795,20 +795,20 @@
       <c r="C4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="12" t="s">
+      <c r="E4" s="17"/>
+      <c r="F4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="16"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -825,8 +825,8 @@
       </c>
     </row>
     <row r="6" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="12"/>
-      <c r="C6" s="10"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="7"/>
       <c r="E6" s="2"/>
       <c r="F6" s="7"/>
@@ -859,14 +859,14 @@
       <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="12" t="s">
+      <c r="E8" s="17"/>
+      <c r="F8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="16"/>
+      <c r="G8" s="17"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="4" t="s">
@@ -875,14 +875,14 @@
       <c r="C9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="12" t="s">
+      <c r="E9" s="17"/>
+      <c r="F9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="16"/>
+      <c r="G9" s="17"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="4" t="s">
@@ -891,14 +891,14 @@
       <c r="C10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="11" t="s">
+      <c r="E10" s="17"/>
+      <c r="F10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="17"/>
+      <c r="G10" s="10"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G11" s="5" t="s">
@@ -906,30 +906,25 @@
       </c>
     </row>
     <row r="21" spans="8:10" x14ac:dyDescent="0.4">
-      <c r="J21" s="15"/>
+      <c r="J21" s="16"/>
     </row>
     <row r="22" spans="8:10" x14ac:dyDescent="0.4">
-      <c r="J22" s="15"/>
+      <c r="J22" s="16"/>
     </row>
     <row r="23" spans="8:10" x14ac:dyDescent="0.4">
-      <c r="J23" s="15"/>
+      <c r="J23" s="16"/>
     </row>
     <row r="24" spans="8:10" x14ac:dyDescent="0.4">
-      <c r="J24" s="15"/>
+      <c r="J24" s="16"/>
     </row>
     <row r="25" spans="8:10" x14ac:dyDescent="0.4">
-      <c r="J25" s="15"/>
+      <c r="J25" s="16"/>
     </row>
     <row r="26" spans="8:10" x14ac:dyDescent="0.4">
       <c r="H26" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="J21:J22"/>
     <mergeCell ref="J23:J25"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="D2:E2"/>
@@ -942,6 +937,11 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="J21:J22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
